--- a/MatchMoveConsolidate/Mastersheet.xlsx
+++ b/MatchMoveConsolidate/Mastersheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulbrower/projects/just-VBA/MatchMoveConsolidate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613BF577-EA50-E047-B92F-EA5A0729E140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE96BE2-1B02-574F-9FA8-F280B98A9228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37780" yWindow="-2880" windowWidth="36040" windowHeight="18460" xr2:uid="{93502A6C-DEFD-3148-BE79-0985364F75EB}"/>
+    <workbookView xWindow="1460" yWindow="1260" windowWidth="36040" windowHeight="18460" xr2:uid="{93502A6C-DEFD-3148-BE79-0985364F75EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>Transaction</t>
   </si>
@@ -127,17 +127,19 @@
   </si>
   <si>
     <t>CODE2</t>
+  </si>
+  <si>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="mmmm\ m/d/yy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,19 +152,79 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0432FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0432FF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0432FF"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -172,30 +234,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="164" formatCode="mmmm\ m/d/yy"/>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF0432FF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF0432FF"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="mmmm\ m/d/yy"/>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF0432FF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF0432FF"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thick">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0432FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -208,15 +393,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{482324CE-C017-EE44-9C30-48237AC15BEB}" name="Table134" displayName="Table134" ref="G1:U8" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{482324CE-C017-EE44-9C30-48237AC15BEB}" name="Table134" displayName="Table134" ref="G1:U8" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="G1:U8" xr:uid="{482324CE-C017-EE44-9C30-48237AC15BEB}"/>
   <tableColumns count="15">
-    <tableColumn id="13" xr3:uid="{E52FBF87-E993-6B40-B397-31309928B046}" name="SHEET" dataCellStyle="Currency"/>
-    <tableColumn id="1" xr3:uid="{46895017-D6D6-3445-AFB5-F547BC6B849B}" name="Transaction">
+    <tableColumn id="13" xr3:uid="{E52FBF87-E993-6B40-B397-31309928B046}" name="SHEET" dataDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{46895017-D6D6-3445-AFB5-F547BC6B849B}" name="Transaction" dataDxfId="0">
       <calculatedColumnFormula>H1+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{1FE81E15-6ED3-6042-B75E-8E9CE52E8DEF}" name="Transaction Date" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{910B7142-3E6A-634B-A1B5-B4CD0DB00420}" name="Posted Date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{1FE81E15-6ED3-6042-B75E-8E9CE52E8DEF}" name="Transaction Date" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{910B7142-3E6A-634B-A1B5-B4CD0DB00420}" name="Posted Date" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{08C723F9-58C9-B740-BD9F-B4F2B986DEE1}" name="From Account"/>
     <tableColumn id="5" xr3:uid="{B0CDF15D-32AD-D241-9AE5-942DEDF72857}" name="To Account"/>
     <tableColumn id="6" xr3:uid="{E098AEC3-7617-C941-9793-D13AE12AD9A3}" name="Transaction Description\Merchant Name"/>
@@ -226,8 +411,8 @@
     <tableColumn id="10" xr3:uid="{78B1D1E5-98C7-5448-9046-E000EEDDE04B}" name="Payment\Refund (+)" dataCellStyle="Currency"/>
     <tableColumn id="11" xr3:uid="{5FFF12C0-81CF-104A-9D2A-80B50A92F6E3}" name="POSTED"/>
     <tableColumn id="12" xr3:uid="{57680911-3BD9-CF4F-AF60-59B802E0E3EE}" name="Balance" dataCellStyle="Currency"/>
-    <tableColumn id="14" xr3:uid="{27BDD973-CB50-3348-9D3C-811CFB4219A4}" name="Balance Verified" dataCellStyle="Currency"/>
-    <tableColumn id="15" xr3:uid="{4D989EE8-0613-DF46-AB56-A5E7342C25D2}" name="CODE2" dataCellStyle="Currency"/>
+    <tableColumn id="14" xr3:uid="{27BDD973-CB50-3348-9D3C-811CFB4219A4}" name="Balance Verified" dataDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="15" xr3:uid="{4D989EE8-0613-DF46-AB56-A5E7342C25D2}" name="CODE2" dataDxfId="4" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -534,13 +719,13 @@
   <dimension ref="G1:U8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="42.5" bestFit="1" customWidth="1"/>
@@ -554,11 +739,11 @@
     <col min="20" max="20" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:21" ht="68" x14ac:dyDescent="0.2">
-      <c r="G1" s="1" t="s">
+    <row r="1" spans="7:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -602,14 +787,16 @@
       </c>
     </row>
     <row r="2" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G2" s="3"/>
-      <c r="H2">
+      <c r="G2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="9">
         <v>1</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="5">
         <v>44571</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="5">
         <v>44573</v>
       </c>
       <c r="K2" t="s">
@@ -627,31 +814,33 @@
       <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="2">
         <v>0</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="2">
         <v>2114.1999999999998</v>
       </c>
       <c r="R2" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="2">
         <v>2114.1999999999998</v>
       </c>
       <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
+      <c r="U2" s="4"/>
     </row>
     <row r="3" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G3" s="3"/>
-      <c r="H3">
+      <c r="G3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="9">
         <f>H2+1</f>
         <v>2</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="5">
         <v>44588</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="5">
         <v>44588</v>
       </c>
       <c r="K3" t="s">
@@ -669,29 +858,31 @@
       <c r="O3" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <v>531.64</v>
       </c>
-      <c r="Q3" s="3"/>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="2">
         <v>1582.56</v>
       </c>
       <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="U3" s="4"/>
     </row>
     <row r="4" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G4" s="3"/>
-      <c r="H4">
+      <c r="G4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="9">
         <f t="shared" ref="H4:H8" si="0">H3+1</f>
         <v>3</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="5">
         <v>44589</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="5">
         <v>44589</v>
       </c>
       <c r="K4" t="s">
@@ -709,29 +900,31 @@
       <c r="O4" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <v>972.96</v>
       </c>
-      <c r="Q4" s="3"/>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="2">
         <v>609.6</v>
       </c>
       <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
+      <c r="U4" s="4"/>
     </row>
     <row r="5" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G5" s="3"/>
-      <c r="H5">
+      <c r="G5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="5">
         <v>44592</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="5">
         <v>44592</v>
       </c>
       <c r="K5" t="s">
@@ -749,29 +942,31 @@
       <c r="O5" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="2">
         <v>214.69</v>
       </c>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="2">
         <v>394.91</v>
       </c>
       <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
+      <c r="U5" s="4"/>
     </row>
     <row r="6" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G6" s="3"/>
-      <c r="H6">
+      <c r="G6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="5">
         <v>44605</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="5">
         <v>44605</v>
       </c>
       <c r="K6" t="s">
@@ -789,29 +984,31 @@
       <c r="O6" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="2">
         <v>0</v>
       </c>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s">
         <v>19</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="2">
         <v>0</v>
       </c>
       <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
+      <c r="U6" s="4"/>
     </row>
     <row r="7" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G7" s="3"/>
-      <c r="H7">
+      <c r="G7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="5">
         <v>44620</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="5">
         <v>44620</v>
       </c>
       <c r="K7" t="s">
@@ -829,29 +1026,31 @@
       <c r="O7" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="2">
         <v>0</v>
       </c>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="2">
         <v>0</v>
       </c>
       <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="U7" s="4"/>
     </row>
     <row r="8" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G8" s="3"/>
-      <c r="H8">
+      <c r="G8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="5">
         <v>44709</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="5">
         <v>44709</v>
       </c>
       <c r="K8" t="s">
@@ -869,20 +1068,21 @@
       <c r="O8" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="2">
         <v>394.91</v>
       </c>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="2">
         <v>394.91</v>
       </c>
       <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+      <c r="U8" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/MatchMoveConsolidate/Mastersheet.xlsx
+++ b/MatchMoveConsolidate/Mastersheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulbrower/projects/just-VBA/MatchMoveConsolidate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE96BE2-1B02-574F-9FA8-F280B98A9228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C44FF4B-F51E-A04D-A639-48518D104E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="1260" windowWidth="36040" windowHeight="18460" xr2:uid="{93502A6C-DEFD-3148-BE79-0985364F75EB}"/>
+    <workbookView xWindow="5080" yWindow="2880" windowWidth="34620" windowHeight="23000" xr2:uid="{93502A6C-DEFD-3148-BE79-0985364F75EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="35">
   <si>
     <t>Transaction</t>
   </si>
@@ -130,14 +130,28 @@
   </si>
   <si>
     <t>TEST</t>
+  </si>
+  <si>
+    <t>BMO (14)</t>
+  </si>
+  <si>
+    <t>CompanyA (1)</t>
+  </si>
+  <si>
+    <t>CompanyB (2)</t>
+  </si>
+  <si>
+    <t>Sheet2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="000.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -234,14 +248,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -257,12 +270,55 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="000.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thick">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -328,50 +384,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thick">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -393,15 +405,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{482324CE-C017-EE44-9C30-48237AC15BEB}" name="Table134" displayName="Table134" ref="G1:U8" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="G1:U8" xr:uid="{482324CE-C017-EE44-9C30-48237AC15BEB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{482324CE-C017-EE44-9C30-48237AC15BEB}" name="tblMaster" displayName="tblMaster" ref="G1:U36" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="G1:U36" xr:uid="{482324CE-C017-EE44-9C30-48237AC15BEB}"/>
   <tableColumns count="15">
-    <tableColumn id="13" xr3:uid="{E52FBF87-E993-6B40-B397-31309928B046}" name="SHEET" dataDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="1" xr3:uid="{46895017-D6D6-3445-AFB5-F547BC6B849B}" name="Transaction" dataDxfId="0">
+    <tableColumn id="13" xr3:uid="{E52FBF87-E993-6B40-B397-31309928B046}" name="SHEET" dataDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{46895017-D6D6-3445-AFB5-F547BC6B849B}" name="Transaction" dataDxfId="4">
       <calculatedColumnFormula>H1+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{1FE81E15-6ED3-6042-B75E-8E9CE52E8DEF}" name="Transaction Date" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{910B7142-3E6A-634B-A1B5-B4CD0DB00420}" name="Posted Date" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{1FE81E15-6ED3-6042-B75E-8E9CE52E8DEF}" name="Transaction Date" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{910B7142-3E6A-634B-A1B5-B4CD0DB00420}" name="Posted Date" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{08C723F9-58C9-B740-BD9F-B4F2B986DEE1}" name="From Account"/>
     <tableColumn id="5" xr3:uid="{B0CDF15D-32AD-D241-9AE5-942DEDF72857}" name="To Account"/>
     <tableColumn id="6" xr3:uid="{E098AEC3-7617-C941-9793-D13AE12AD9A3}" name="Transaction Description\Merchant Name"/>
@@ -411,8 +423,8 @@
     <tableColumn id="10" xr3:uid="{78B1D1E5-98C7-5448-9046-E000EEDDE04B}" name="Payment\Refund (+)" dataCellStyle="Currency"/>
     <tableColumn id="11" xr3:uid="{5FFF12C0-81CF-104A-9D2A-80B50A92F6E3}" name="POSTED"/>
     <tableColumn id="12" xr3:uid="{57680911-3BD9-CF4F-AF60-59B802E0E3EE}" name="Balance" dataCellStyle="Currency"/>
-    <tableColumn id="14" xr3:uid="{27BDD973-CB50-3348-9D3C-811CFB4219A4}" name="Balance Verified" dataDxfId="5" dataCellStyle="Currency"/>
-    <tableColumn id="15" xr3:uid="{4D989EE8-0613-DF46-AB56-A5E7342C25D2}" name="CODE2" dataDxfId="4" dataCellStyle="Currency"/>
+    <tableColumn id="14" xr3:uid="{27BDD973-CB50-3348-9D3C-811CFB4219A4}" name="Balance Verified" dataDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="15" xr3:uid="{4D989EE8-0613-DF46-AB56-A5E7342C25D2}" name="CODE2" dataDxfId="0" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -716,10 +728,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9652BA4F-E18A-E241-B1CC-6E6A0DFEE7B5}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="G1:U8"/>
+  <dimension ref="G1:U36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -740,10 +752,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="7:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -787,16 +799,16 @@
       </c>
     </row>
     <row r="2" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>1</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>44571</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>44573</v>
       </c>
       <c r="K2" t="s">
@@ -827,20 +839,22 @@
         <v>2114.1999999999998</v>
       </c>
       <c r="T2" s="3"/>
-      <c r="U2" s="4"/>
+      <c r="U2" s="10">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <f>H2+1</f>
         <v>2</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>44588</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>44588</v>
       </c>
       <c r="K3" t="s">
@@ -869,20 +883,22 @@
         <v>1582.56</v>
       </c>
       <c r="T3" s="3"/>
-      <c r="U3" s="4"/>
+      <c r="U3" s="10">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <f t="shared" ref="H4:H8" si="0">H3+1</f>
         <v>3</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>44589</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>44589</v>
       </c>
       <c r="K4" t="s">
@@ -911,20 +927,22 @@
         <v>609.6</v>
       </c>
       <c r="T4" s="3"/>
-      <c r="U4" s="4"/>
+      <c r="U4" s="10">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>44592</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>44592</v>
       </c>
       <c r="K5" t="s">
@@ -953,20 +971,22 @@
         <v>394.91</v>
       </c>
       <c r="T5" s="3"/>
-      <c r="U5" s="4"/>
+      <c r="U5" s="10">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>44605</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>44605</v>
       </c>
       <c r="K6" t="s">
@@ -995,20 +1015,22 @@
         <v>0</v>
       </c>
       <c r="T6" s="3"/>
-      <c r="U6" s="4"/>
+      <c r="U6" s="10">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>44620</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>44620</v>
       </c>
       <c r="K7" t="s">
@@ -1037,20 +1059,22 @@
         <v>0</v>
       </c>
       <c r="T7" s="3"/>
-      <c r="U7" s="4"/>
+      <c r="U7" s="10">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>44709</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>44709</v>
       </c>
       <c r="K8" t="s">
@@ -1079,7 +1103,1207 @@
         <v>394.91</v>
       </c>
       <c r="T8" s="3"/>
-      <c r="U8" s="4"/>
+      <c r="U8" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>44571</v>
+      </c>
+      <c r="J9" s="4">
+        <v>44573</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>2114.1999999999998</v>
+      </c>
+      <c r="R9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="9">
+        <v>2114.1999999999998</v>
+      </c>
+      <c r="T9" s="3"/>
+      <c r="U9" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="8">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>44588</v>
+      </c>
+      <c r="J10" s="4">
+        <v>44588</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="9">
+        <v>531.64</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="9">
+        <v>1582.56</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="U10" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="8">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <v>44589</v>
+      </c>
+      <c r="J11" s="4">
+        <v>44589</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="9">
+        <v>972.96</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" s="9">
+        <v>609.6</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="8">
+        <v>4</v>
+      </c>
+      <c r="I12" s="4">
+        <v>44592</v>
+      </c>
+      <c r="J12" s="4">
+        <v>44592</v>
+      </c>
+      <c r="K12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="9">
+        <v>214.69</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" s="9">
+        <v>394.91</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="8">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4">
+        <v>44605</v>
+      </c>
+      <c r="J13" s="4">
+        <v>44605</v>
+      </c>
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="9">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3"/>
+      <c r="U13" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="8">
+        <v>6</v>
+      </c>
+      <c r="I14" s="4">
+        <v>44620</v>
+      </c>
+      <c r="J14" s="4">
+        <v>44620</v>
+      </c>
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s">
+        <v>19</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="8">
+        <v>7</v>
+      </c>
+      <c r="I15" s="4">
+        <v>44709</v>
+      </c>
+      <c r="J15" s="4">
+        <v>44709</v>
+      </c>
+      <c r="K15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="9">
+        <v>394.91</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" t="s">
+        <v>19</v>
+      </c>
+      <c r="S15" s="9">
+        <v>394.91</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>44571</v>
+      </c>
+      <c r="J16" s="4">
+        <v>44573</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>2114.1999999999998</v>
+      </c>
+      <c r="R16" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16" s="9">
+        <v>2114.1999999999998</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="8">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4">
+        <v>44588</v>
+      </c>
+      <c r="J17" s="4">
+        <v>44588</v>
+      </c>
+      <c r="K17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" t="s">
+        <v>13</v>
+      </c>
+      <c r="P17" s="9">
+        <v>531.64</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" s="9">
+        <v>1582.56</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="8">
+        <v>3</v>
+      </c>
+      <c r="I18" s="4">
+        <v>44589</v>
+      </c>
+      <c r="J18" s="4">
+        <v>44589</v>
+      </c>
+      <c r="K18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="9">
+        <v>972.96</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" t="s">
+        <v>19</v>
+      </c>
+      <c r="S18" s="9">
+        <v>609.6</v>
+      </c>
+      <c r="T18" s="3"/>
+      <c r="U18" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="8">
+        <v>4</v>
+      </c>
+      <c r="I19" s="4">
+        <v>44592</v>
+      </c>
+      <c r="J19" s="4">
+        <v>44592</v>
+      </c>
+      <c r="K19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="9">
+        <v>214.69</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" s="9">
+        <v>394.91</v>
+      </c>
+      <c r="T19" s="3"/>
+      <c r="U19" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="8">
+        <v>5</v>
+      </c>
+      <c r="I20" s="4">
+        <v>44605</v>
+      </c>
+      <c r="J20" s="4">
+        <v>44605</v>
+      </c>
+      <c r="K20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" t="s">
+        <v>19</v>
+      </c>
+      <c r="S20" s="9">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3"/>
+      <c r="U20" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="8">
+        <v>6</v>
+      </c>
+      <c r="I21" s="4">
+        <v>44620</v>
+      </c>
+      <c r="J21" s="4">
+        <v>44620</v>
+      </c>
+      <c r="K21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" s="9">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3"/>
+      <c r="U21" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="8">
+        <v>7</v>
+      </c>
+      <c r="I22" s="4">
+        <v>44709</v>
+      </c>
+      <c r="J22" s="4">
+        <v>44709</v>
+      </c>
+      <c r="K22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="9">
+        <v>394.91</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" t="s">
+        <v>19</v>
+      </c>
+      <c r="S22" s="9">
+        <v>394.91</v>
+      </c>
+      <c r="T22" s="3"/>
+      <c r="U22" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4">
+        <v>44571</v>
+      </c>
+      <c r="J23" s="4">
+        <v>44573</v>
+      </c>
+      <c r="K23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>2114.1999999999998</v>
+      </c>
+      <c r="R23" t="s">
+        <v>14</v>
+      </c>
+      <c r="S23" s="9">
+        <v>2114.1999999999998</v>
+      </c>
+      <c r="T23" s="3"/>
+      <c r="U23" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="8">
+        <v>2</v>
+      </c>
+      <c r="I24" s="4">
+        <v>44588</v>
+      </c>
+      <c r="J24" s="4">
+        <v>44588</v>
+      </c>
+      <c r="K24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="9">
+        <v>531.64</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" t="s">
+        <v>19</v>
+      </c>
+      <c r="S24" s="9">
+        <v>1582.56</v>
+      </c>
+      <c r="T24" s="3"/>
+      <c r="U24" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="8">
+        <v>3</v>
+      </c>
+      <c r="I25" s="4">
+        <v>44589</v>
+      </c>
+      <c r="J25" s="4">
+        <v>44589</v>
+      </c>
+      <c r="K25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P25" s="9">
+        <v>972.96</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" t="s">
+        <v>19</v>
+      </c>
+      <c r="S25" s="9">
+        <v>609.6</v>
+      </c>
+      <c r="T25" s="3"/>
+      <c r="U25" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="8">
+        <v>4</v>
+      </c>
+      <c r="I26" s="4">
+        <v>44592</v>
+      </c>
+      <c r="J26" s="4">
+        <v>44592</v>
+      </c>
+      <c r="K26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" s="9">
+        <v>214.69</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" t="s">
+        <v>19</v>
+      </c>
+      <c r="S26" s="9">
+        <v>394.91</v>
+      </c>
+      <c r="T26" s="3"/>
+      <c r="U26" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="8">
+        <v>5</v>
+      </c>
+      <c r="I27" s="4">
+        <v>44605</v>
+      </c>
+      <c r="J27" s="4">
+        <v>44605</v>
+      </c>
+      <c r="K27" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" t="s">
+        <v>25</v>
+      </c>
+      <c r="P27" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" t="s">
+        <v>19</v>
+      </c>
+      <c r="S27" s="9">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3"/>
+      <c r="U27" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="8">
+        <v>6</v>
+      </c>
+      <c r="I28" s="4">
+        <v>44620</v>
+      </c>
+      <c r="J28" s="4">
+        <v>44620</v>
+      </c>
+      <c r="K28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" t="s">
+        <v>25</v>
+      </c>
+      <c r="P28" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s">
+        <v>19</v>
+      </c>
+      <c r="S28" s="9">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3"/>
+      <c r="U28" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="8">
+        <v>7</v>
+      </c>
+      <c r="I29" s="4">
+        <v>44709</v>
+      </c>
+      <c r="J29" s="4">
+        <v>44709</v>
+      </c>
+      <c r="K29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" s="9">
+        <v>394.91</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s">
+        <v>19</v>
+      </c>
+      <c r="S29" s="9">
+        <v>394.91</v>
+      </c>
+      <c r="T29" s="3"/>
+      <c r="U29" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4">
+        <v>44571</v>
+      </c>
+      <c r="J30" s="4">
+        <v>44573</v>
+      </c>
+      <c r="K30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" t="s">
+        <v>13</v>
+      </c>
+      <c r="P30" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>2114.1999999999998</v>
+      </c>
+      <c r="R30" t="s">
+        <v>14</v>
+      </c>
+      <c r="S30" s="9">
+        <v>2114.1999999999998</v>
+      </c>
+      <c r="T30" s="3"/>
+      <c r="U30" s="10"/>
+    </row>
+    <row r="31" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="8">
+        <v>2</v>
+      </c>
+      <c r="I31" s="4">
+        <v>44588</v>
+      </c>
+      <c r="J31" s="4">
+        <v>44588</v>
+      </c>
+      <c r="K31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" t="s">
+        <v>18</v>
+      </c>
+      <c r="O31" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="9">
+        <v>531.64</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s">
+        <v>19</v>
+      </c>
+      <c r="S31" s="9">
+        <v>1582.56</v>
+      </c>
+      <c r="T31" s="3"/>
+      <c r="U31" s="10"/>
+    </row>
+    <row r="32" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="8">
+        <v>3</v>
+      </c>
+      <c r="I32" s="4">
+        <v>44589</v>
+      </c>
+      <c r="J32" s="4">
+        <v>44589</v>
+      </c>
+      <c r="K32" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" s="9">
+        <v>972.96</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" t="s">
+        <v>19</v>
+      </c>
+      <c r="S32" s="9">
+        <v>609.6</v>
+      </c>
+      <c r="T32" s="3"/>
+      <c r="U32" s="10"/>
+    </row>
+    <row r="33" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G33" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="8">
+        <v>4</v>
+      </c>
+      <c r="I33" s="4">
+        <v>44592</v>
+      </c>
+      <c r="J33" s="4">
+        <v>44592</v>
+      </c>
+      <c r="K33" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" t="s">
+        <v>17</v>
+      </c>
+      <c r="N33" t="s">
+        <v>22</v>
+      </c>
+      <c r="O33" t="s">
+        <v>13</v>
+      </c>
+      <c r="P33" s="9">
+        <v>214.69</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s">
+        <v>19</v>
+      </c>
+      <c r="S33" s="9">
+        <v>394.91</v>
+      </c>
+      <c r="T33" s="3"/>
+      <c r="U33" s="10"/>
+    </row>
+    <row r="34" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G34" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="8">
+        <v>5</v>
+      </c>
+      <c r="I34" s="4">
+        <v>44605</v>
+      </c>
+      <c r="J34" s="4">
+        <v>44605</v>
+      </c>
+      <c r="K34" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" t="s">
+        <v>22</v>
+      </c>
+      <c r="O34" t="s">
+        <v>25</v>
+      </c>
+      <c r="P34" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s">
+        <v>19</v>
+      </c>
+      <c r="S34" s="9">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3"/>
+      <c r="U34" s="10"/>
+    </row>
+    <row r="35" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G35" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="8">
+        <v>6</v>
+      </c>
+      <c r="I35" s="4">
+        <v>44620</v>
+      </c>
+      <c r="J35" s="4">
+        <v>44620</v>
+      </c>
+      <c r="K35" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" t="s">
+        <v>22</v>
+      </c>
+      <c r="O35" t="s">
+        <v>25</v>
+      </c>
+      <c r="P35" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s">
+        <v>19</v>
+      </c>
+      <c r="S35" s="9">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3"/>
+      <c r="U35" s="10"/>
+    </row>
+    <row r="36" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="G36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="8">
+        <v>7</v>
+      </c>
+      <c r="I36" s="4">
+        <v>44709</v>
+      </c>
+      <c r="J36" s="4">
+        <v>44709</v>
+      </c>
+      <c r="K36" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" t="s">
+        <v>22</v>
+      </c>
+      <c r="O36" t="s">
+        <v>25</v>
+      </c>
+      <c r="P36" s="9">
+        <v>394.91</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s">
+        <v>19</v>
+      </c>
+      <c r="S36" s="9">
+        <v>394.91</v>
+      </c>
+      <c r="T36" s="3"/>
+      <c r="U36" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1095,7 +2319,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
